--- a/Catan.xlsx
+++ b/Catan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="253">
   <si>
     <t>Oyun No</t>
   </si>
@@ -717,6 +717,57 @@
   </si>
   <si>
     <t>5, 8, 10, 3, 4, 6</t>
+  </si>
+  <si>
+    <t>5, 8, 10, 9, 6, 12</t>
+  </si>
+  <si>
+    <t>5, 6, 9, 8, 9</t>
+  </si>
+  <si>
+    <t>4, 8, 9, 4, 5, 10</t>
+  </si>
+  <si>
+    <t>4, 5, 11, 6, 9, 2</t>
+  </si>
+  <si>
+    <t>2, 8, 10, 9, 10, 12</t>
+  </si>
+  <si>
+    <t>5, 8, 9, 4, 6, 11</t>
+  </si>
+  <si>
+    <t>5, 6, 9, 2, 6, 9</t>
+  </si>
+  <si>
+    <t>4, 5, 8, 3, 4, 8</t>
+  </si>
+  <si>
+    <t>Koyun, Kaya, Tuğla</t>
+  </si>
+  <si>
+    <t>5, 8, 10, 4, 9, 11</t>
+  </si>
+  <si>
+    <t>4, 8, 5, 10, 11</t>
+  </si>
+  <si>
+    <t>4, 6, 12, 2, 4, 6</t>
+  </si>
+  <si>
+    <t>4, 6, 9, 8, 10</t>
+  </si>
+  <si>
+    <t>8, 9, 5, 9, 12</t>
+  </si>
+  <si>
+    <t>5, 10, 11, 3, 9, 10</t>
+  </si>
+  <si>
+    <t>Kaya, Odun</t>
+  </si>
+  <si>
+    <t>5, 8, 9, 8, 11</t>
   </si>
   <si>
     <t>https://github.com/koftezz/the-settlers-of-catan/blob/main/The%20Settlers%20of%20Catan%20Board%20Game.ipynb</t>
@@ -21945,6 +21996,1620 @@
         <v>230</v>
       </c>
     </row>
+    <row r="205">
+      <c r="A205" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B205" s="4">
+        <v>44813.0</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D205" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G205" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I205" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J205" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="K205" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="L205" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M205" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N205" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O205" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P205" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q205" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="R205" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S205" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="T205" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U205" s="5">
+        <v>0.9652777777777778</v>
+      </c>
+      <c r="V205" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W205" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X205" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y205" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z205" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA205" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB205" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC205" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD205" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE205" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF205" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG205" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH205" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AI205" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ205" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B206" s="4">
+        <v>44813.0</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D206" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G206" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I206" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J206" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="K206" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="L206" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M206" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N206" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O206" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P206" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q206" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R206" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S206" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="T206" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U206" s="5">
+        <v>0.9652777777777778</v>
+      </c>
+      <c r="V206" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="W206" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X206" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y206" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z206" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA206" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB206" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC206" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD206" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE206" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF206" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG206" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AH206" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI206" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ206" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B207" s="4">
+        <v>44813.0</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D207" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G207" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I207" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J207" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="K207" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="L207" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M207" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N207" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O207" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P207" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q207" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R207" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S207" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="T207" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U207" s="5">
+        <v>0.9652777777777778</v>
+      </c>
+      <c r="V207" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W207" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X207" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y207" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z207" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA207" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB207" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC207" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD207" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AE207" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF207" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG207" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH207" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI207" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ207" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B208" s="4">
+        <v>44813.0</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D208" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G208" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I208" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J208" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K208" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="L208" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M208" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N208" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O208" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P208" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Q208" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R208" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S208" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="T208" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U208" s="5">
+        <v>0.9652777777777778</v>
+      </c>
+      <c r="V208" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W208" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X208" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y208" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z208" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA208" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB208" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC208" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD208" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE208" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF208" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG208" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH208" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI208" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ208" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B209" s="4">
+        <v>44813.0</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D209" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G209" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I209" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J209" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="K209" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="L209" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M209" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N209" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O209" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P209" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Q209" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R209" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S209" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="T209" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U209" s="5">
+        <v>0.9652777777777778</v>
+      </c>
+      <c r="V209" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W209" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X209" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y209" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z209" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA209" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB209" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC209" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD209" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE209" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF209" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="AG209" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH209" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI209" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ209" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B210" s="4">
+        <v>44813.0</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D210" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G210" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I210" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J210" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K210" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="L210" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M210" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N210" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O210" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P210" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Q210" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="R210" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="S210" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="T210" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U210" s="5">
+        <v>0.9652777777777778</v>
+      </c>
+      <c r="V210" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W210" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X210" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y210" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z210" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA210" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB210" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC210" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD210" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE210" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF210" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG210" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH210" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI210" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="AJ210" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="B211" s="4">
+        <v>44814.0</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D211" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G211" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I211" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J211" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="K211" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="L211" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M211" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N211" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O211" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P211" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Q211" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="R211" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S211" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="T211" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U211" s="5">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="V211" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W211" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X211" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y211" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z211" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA211" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB211" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC211" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD211" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE211" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF211" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG211" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH211" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI211" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ211" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AK211" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="B212" s="4">
+        <v>44814.0</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D212" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G212" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I212" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J212" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K212" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="L212" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M212" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N212" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O212" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P212" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q212" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R212" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="S212" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="T212" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U212" s="5">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="V212" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="W212" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X212" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y212" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z212" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA212" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB212" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC212" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD212" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AE212" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF212" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG212" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH212" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI212" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ212" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK212" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="B213" s="4">
+        <v>44814.0</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D213" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G213" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I213" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J213" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K213" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="L213" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M213" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N213" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O213" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P213" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q213" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="R213" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S213" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="T213" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U213" s="5">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="V213" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W213" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X213" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y213" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z213" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA213" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB213" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC213" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD213" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE213" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AF213" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG213" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH213" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI213" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ213" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AK213" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="B214" s="4">
+        <v>44844.0</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D214" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G214" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I214" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J214" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K214" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="L214" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="M214" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N214" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O214" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P214" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q214" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R214" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S214" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="T214" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U214" s="5">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="V214" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W214" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="X214" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y214" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z214" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA214" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB214" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AC214" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD214" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE214" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF214" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG214" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AH214" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI214" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ214" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="B215" s="4">
+        <v>44844.0</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D215" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G215" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I215" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J215" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="K215" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="L215" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M215" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N215" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O215" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P215" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q215" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R215" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S215" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="T215" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U215" s="5">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="V215" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="W215" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X215" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y215" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z215" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA215" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB215" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC215" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD215" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE215" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF215" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AG215" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH215" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI215" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ215" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="B216" s="4">
+        <v>44844.0</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D216" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G216" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I216" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J216" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K216" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="L216" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M216" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N216" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O216" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P216" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Q216" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R216" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S216" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="T216" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U216" s="5">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="V216" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W216" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X216" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y216" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z216" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA216" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB216" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC216" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD216" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AE216" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AF216" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG216" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH216" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI216" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ216" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="B217" s="4">
+        <v>44844.0</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D217" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G217" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I217" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J217" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K217" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="L217" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M217" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N217" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O217" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P217" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Q217" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R217" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S217" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="T217" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U217" s="5">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="V217" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W217" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X217" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y217" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z217" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA217" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB217" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC217" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD217" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE217" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF217" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG217" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH217" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI217" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ217" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="B218" s="4">
+        <v>44844.0</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D218" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G218" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I218" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J218" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K218" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="L218" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M218" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N218" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O218" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P218" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Q218" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R218" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="S218" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="T218" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U218" s="5">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="V218" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W218" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X218" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y218" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z218" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA218" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB218" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC218" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD218" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE218" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF218" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG218" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH218" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI218" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ218" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="B219" s="4">
+        <v>44844.0</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D219" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G219" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I219" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J219" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K219" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="L219" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M219" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N219" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O219" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P219" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Q219" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="R219" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S219" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="T219" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U219" s="5">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="V219" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W219" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X219" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y219" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z219" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA219" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB219" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC219" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD219" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE219" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF219" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG219" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH219" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AI219" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AJ219" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -21962,7 +23627,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/Catan.xlsx
+++ b/Catan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="256">
   <si>
     <t>Oyun No</t>
   </si>
@@ -644,7 +644,7 @@
     <t>4, 6, 11, 3, 4, 5</t>
   </si>
   <si>
-    <t>Orta</t>
+    <t>Orta Çember</t>
   </si>
   <si>
     <t>5, 8, 10, 5</t>
@@ -704,9 +704,6 @@
     <t>6, 9, 10, 6, 2</t>
   </si>
   <si>
-    <t>Orta Çember</t>
-  </si>
-  <si>
     <t>5, 6, 11, 3, 8, 10</t>
   </si>
   <si>
@@ -768,6 +765,18 @@
   </si>
   <si>
     <t>5, 8, 9, 8, 11</t>
+  </si>
+  <si>
+    <t>3, 4, 6, 8, 4</t>
+  </si>
+  <si>
+    <t>6, 9, 10, 2, 5, 9</t>
+  </si>
+  <si>
+    <t>Tuğla, Koyun, Koyun</t>
+  </si>
+  <si>
+    <t>3, 8, 10, 5, 6, 11</t>
   </si>
   <si>
     <t>https://github.com/koftezz/the-settlers-of-catan/blob/main/The%20Settlers%20of%20Catan%20Board%20Game.ipynb</t>
@@ -21663,7 +21672,7 @@
         <v>229</v>
       </c>
       <c r="AK201" s="1" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="202">
@@ -21770,10 +21779,10 @@
         <v>0.0</v>
       </c>
       <c r="AJ202" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AK202" s="1" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="203">
@@ -21823,7 +21832,7 @@
         <v>1.0</v>
       </c>
       <c r="Q203" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R203" s="1">
         <v>0.0</v>
@@ -21880,10 +21889,10 @@
         <v>0.0</v>
       </c>
       <c r="AJ203" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AK203" s="1" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="204">
@@ -21990,10 +21999,10 @@
         <v>0.0</v>
       </c>
       <c r="AJ204" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AK204" s="1" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="205">
@@ -22100,7 +22109,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ205" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="206">
@@ -22207,7 +22216,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ206" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="207">
@@ -22314,7 +22323,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ207" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="208">
@@ -22421,7 +22430,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ208" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="209">
@@ -22528,7 +22537,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ209" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="210">
@@ -22635,7 +22644,7 @@
         <v>2.0</v>
       </c>
       <c r="AJ210" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="211">
@@ -22742,7 +22751,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ211" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AK211" s="1" t="s">
         <v>167</v>
@@ -22852,7 +22861,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ212" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AK212" s="1" t="s">
         <v>167</v>
@@ -22905,7 +22914,7 @@
         <v>1.0</v>
       </c>
       <c r="Q213" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R213" s="1">
         <v>0.0</v>
@@ -22962,7 +22971,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ213" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AK213" s="1" t="s">
         <v>167</v>
@@ -23072,7 +23081,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ214" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="215">
@@ -23179,7 +23188,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ215" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="216">
@@ -23286,7 +23295,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ216" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="217">
@@ -23393,7 +23402,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ217" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="218">
@@ -23500,7 +23509,7 @@
         <v>0.0</v>
       </c>
       <c r="AJ218" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="219">
@@ -23550,7 +23559,7 @@
         <v>2.0</v>
       </c>
       <c r="Q219" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R219" s="1">
         <v>0.0</v>
@@ -23607,7 +23616,447 @@
         <v>1.0</v>
       </c>
       <c r="AJ219" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="B220" s="4">
+        <v>44846.0</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D220" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G220" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I220" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J220" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K220" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="L220" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M220" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N220" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O220" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P220" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Q220" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R220" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="S220" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="T220" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U220" s="5">
+        <v>0.5694444444444444</v>
+      </c>
+      <c r="V220" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W220" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X220" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y220" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z220" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA220" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB220" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC220" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD220" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE220" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AF220" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AG220" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH220" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI220" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ220" s="1" t="s">
         <v>251</v>
+      </c>
+      <c r="AK220" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="B221" s="4">
+        <v>44846.0</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D221" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G221" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I221" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J221" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K221" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="L221" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M221" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N221" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O221" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P221" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Q221" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R221" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S221" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="T221" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U221" s="5">
+        <v>0.5694444444444444</v>
+      </c>
+      <c r="V221" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W221" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="X221" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y221" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z221" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA221" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB221" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC221" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD221" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AE221" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF221" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG221" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH221" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI221" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AJ221" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AK221" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="B222" s="4">
+        <v>44846.0</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D222" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G222" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I222" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J222" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K222" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="L222" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M222" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N222" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O222" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P222" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q222" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="R222" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S222" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="T222" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U222" s="5">
+        <v>0.5694444444444444</v>
+      </c>
+      <c r="V222" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="W222" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X222" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y222" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z222" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA222" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB222" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC222" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD222" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE222" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF222" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG222" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AH222" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI222" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ222" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AK222" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="B223" s="4">
+        <v>44846.0</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D223" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G223" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I223" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J223" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K223" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="L223" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M223" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N223" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O223" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P223" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Q223" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R223" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S223" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="T223" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U223" s="5">
+        <v>0.5694444444444444</v>
+      </c>
+      <c r="V223" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W223" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X223" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y223" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z223" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA223" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB223" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC223" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD223" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE223" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF223" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="AG223" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH223" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI223" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ223" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AK223" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -23627,7 +24076,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/Catan.xlsx
+++ b/Catan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="261">
   <si>
     <t>Oyun No</t>
   </si>
@@ -777,6 +777,21 @@
   </si>
   <si>
     <t>3, 8, 10, 5, 6, 11</t>
+  </si>
+  <si>
+    <t>5, 10, 6, 11, 4</t>
+  </si>
+  <si>
+    <t>5, 6, 11, 3, 8</t>
+  </si>
+  <si>
+    <t>5, 9, 10, 4, 9, 11</t>
+  </si>
+  <si>
+    <t>Tuğla, Odun, Kaya</t>
+  </si>
+  <si>
+    <t>3, 8, 10, 3, 4, 19</t>
   </si>
   <si>
     <t>https://github.com/koftezz/the-settlers-of-catan/blob/main/The%20Settlers%20of%20Catan%20Board%20Game.ipynb</t>
@@ -24059,6 +24074,446 @@
         <v>210</v>
       </c>
     </row>
+    <row r="224">
+      <c r="A224" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="B224" s="4">
+        <v>44877.0</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D224" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G224" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I224" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J224" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K224" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="L224" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M224" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N224" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O224" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P224" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Q224" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R224" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S224" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="T224" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U224" s="5">
+        <v>0.5590277777777778</v>
+      </c>
+      <c r="V224" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W224" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X224" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y224" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z224" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA224" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB224" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AC224" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD224" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE224" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF224" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG224" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AH224" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AI224" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ224" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AK224" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="B225" s="4">
+        <v>44877.0</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D225" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G225" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I225" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J225" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="K225" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="L225" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M225" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N225" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O225" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P225" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Q225" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R225" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S225" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="T225" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U225" s="5">
+        <v>0.5590277777777778</v>
+      </c>
+      <c r="V225" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="W225" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X225" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y225" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z225" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA225" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB225" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC225" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AD225" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE225" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF225" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="AG225" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH225" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI225" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AJ225" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK225" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="B226" s="4">
+        <v>44877.0</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D226" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G226" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I226" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J226" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K226" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="L226" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M226" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N226" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O226" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P226" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q226" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="R226" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S226" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="T226" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U226" s="5">
+        <v>0.5590277777777778</v>
+      </c>
+      <c r="V226" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W226" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X226" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y226" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z226" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA226" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB226" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC226" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD226" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE226" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF226" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AG226" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH226" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI226" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ226" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK226" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="B227" s="4">
+        <v>44877.0</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D227" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G227" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I227" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J227" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K227" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="L227" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M227" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N227" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O227" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P227" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Q227" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="R227" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="S227" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="T227" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U227" s="5">
+        <v>0.5590277777777778</v>
+      </c>
+      <c r="V227" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W227" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="X227" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y227" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z227" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA227" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB227" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC227" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD227" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE227" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF227" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG227" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH227" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI227" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ227" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK227" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -24076,7 +24531,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/Catan.xlsx
+++ b/Catan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="289">
   <si>
     <t>Oyun No</t>
   </si>
@@ -792,6 +792,90 @@
   </si>
   <si>
     <t>3, 8, 10, 3, 4, 19</t>
+  </si>
+  <si>
+    <t>5, 6, 9, 8, 10, 2</t>
+  </si>
+  <si>
+    <t>Kaya, Saman, Saman</t>
+  </si>
+  <si>
+    <t>4, 8, 6, 11, 12</t>
+  </si>
+  <si>
+    <t>5, 6, 9, 4, 5, 8</t>
+  </si>
+  <si>
+    <t>5, 10, 11, 3, 8, 9</t>
+  </si>
+  <si>
+    <t>5, 6, 9, 4, 11, 11</t>
+  </si>
+  <si>
+    <t>8, 9, 10, 6, 3</t>
+  </si>
+  <si>
+    <t>8, 10, 5, 4, 5</t>
+  </si>
+  <si>
+    <t>Tuğla, Saman, Kaya</t>
+  </si>
+  <si>
+    <t>4, 5, 8, 2, 6, 9</t>
+  </si>
+  <si>
+    <t>6, 9, 10, 4, 5, 2</t>
+  </si>
+  <si>
+    <t>5, 9, 10, 9, 10</t>
+  </si>
+  <si>
+    <t>5, 6, 10, 3, 4, 6</t>
+  </si>
+  <si>
+    <t>3, 10, 8, 5, 8, 3</t>
+  </si>
+  <si>
+    <t>4, 9, 11, 4, 8</t>
+  </si>
+  <si>
+    <t>5, 8, 10, 5, 9, 10</t>
+  </si>
+  <si>
+    <t>3, 8, 6, 9, 10</t>
+  </si>
+  <si>
+    <t>3, 8, 10, 4, 9, 11</t>
+  </si>
+  <si>
+    <t>3, 6, 9, 10, 9, 11</t>
+  </si>
+  <si>
+    <t>Koyun, Saman, Koyun</t>
+  </si>
+  <si>
+    <t>4, 5, 6, 5, 9, 10</t>
+  </si>
+  <si>
+    <t>3, 8, 10, 5, 8, 10</t>
+  </si>
+  <si>
+    <t>5, 8, 10, 3, 6</t>
+  </si>
+  <si>
+    <t>5, 8, 10, 3, 6, 11</t>
+  </si>
+  <si>
+    <t>8, 4, 6, 12, 11</t>
+  </si>
+  <si>
+    <t>5, 9, 6, 4, 9, 6</t>
+  </si>
+  <si>
+    <t>5, 6, 9, 3, 4, 8</t>
+  </si>
+  <si>
+    <t>4,5, 8, 3, 6, 9</t>
   </si>
   <si>
     <t>https://github.com/koftezz/the-settlers-of-catan/blob/main/The%20Settlers%20of%20Catan%20Board%20Game.ipynb</t>
@@ -24514,6 +24598,2934 @@
         <v>210</v>
       </c>
     </row>
+    <row r="228">
+      <c r="A228" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="B228" s="4">
+        <v>44878.0</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D228" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G228" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I228" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J228" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K228" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L228" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M228" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N228" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O228" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P228" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Q228" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="R228" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S228" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="T228" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U228" s="5">
+        <v>0.7430555555555556</v>
+      </c>
+      <c r="V228" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W228" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X228" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y228" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z228" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA228" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB228" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC228" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD228" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE228" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF228" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG228" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH228" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI228" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ228" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="B229" s="4">
+        <v>44878.0</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D229" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G229" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I229" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J229" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="K229" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="L229" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="M229" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N229" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O229" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P229" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Q229" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R229" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S229" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="T229" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U229" s="5">
+        <v>0.7430555555555556</v>
+      </c>
+      <c r="V229" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W229" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="X229" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y229" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z229" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA229" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB229" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC229" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD229" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE229" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF229" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG229" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH229" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI229" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ229" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="B230" s="4">
+        <v>44878.0</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D230" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G230" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I230" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J230" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="K230" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L230" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M230" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N230" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O230" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P230" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Q230" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R230" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S230" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="T230" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U230" s="5">
+        <v>0.7430555555555556</v>
+      </c>
+      <c r="V230" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W230" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X230" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y230" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z230" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA230" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AB230" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC230" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD230" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE230" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AF230" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG230" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH230" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI230" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AJ230" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="B231" s="4">
+        <v>44878.0</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D231" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G231" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I231" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J231" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K231" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="L231" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M231" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N231" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O231" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P231" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q231" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R231" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="S231" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="T231" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U231" s="5">
+        <v>0.7430555555555556</v>
+      </c>
+      <c r="V231" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="W231" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X231" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y231" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z231" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA231" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB231" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC231" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD231" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE231" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF231" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AG231" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH231" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI231" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ231" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="B232" s="4">
+        <v>44878.0</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D232" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G232" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I232" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J232" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K232" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="L232" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M232" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N232" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O232" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P232" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Q232" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R232" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S232" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="T232" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U232" s="5">
+        <v>0.7430555555555556</v>
+      </c>
+      <c r="V232" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W232" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X232" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y232" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z232" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA232" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB232" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC232" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD232" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE232" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF232" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AG232" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AH232" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI232" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ232" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="B233" s="4">
+        <v>44878.0</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D233" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G233" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I233" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J233" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="K233" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="L233" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M233" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N233" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O233" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P233" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Q233" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R233" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S233" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="T233" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U233" s="5">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="V233" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W233" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X233" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y233" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z233" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA233" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB233" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC233" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD233" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE233" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AF233" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AG233" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH233" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI233" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ233" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="B234" s="4">
+        <v>44878.0</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D234" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G234" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I234" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J234" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K234" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="L234" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M234" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N234" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O234" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P234" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Q234" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R234" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S234" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="T234" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U234" s="5">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="V234" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W234" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X234" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y234" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z234" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA234" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB234" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC234" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD234" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE234" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF234" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG234" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH234" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI234" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ234" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="B235" s="4">
+        <v>44878.0</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D235" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G235" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I235" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J235" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K235" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="L235" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M235" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N235" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O235" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P235" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q235" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="R235" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="S235" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="T235" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U235" s="5">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="V235" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W235" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X235" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y235" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z235" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA235" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AB235" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC235" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD235" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE235" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF235" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG235" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH235" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI235" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AJ235" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="B236" s="4">
+        <v>44878.0</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D236" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G236" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I236" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J236" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="K236" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="L236" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M236" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N236" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O236" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P236" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Q236" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="R236" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S236" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="T236" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U236" s="5">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="V236" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="W236" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X236" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y236" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z236" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA236" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB236" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC236" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD236" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE236" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF236" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AG236" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AH236" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI236" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ236" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="B237" s="4">
+        <v>44878.0</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D237" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G237" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I237" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J237" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K237" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="L237" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M237" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N237" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O237" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P237" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q237" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R237" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S237" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="T237" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U237" s="5">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="V237" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W237" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X237" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y237" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z237" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA237" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB237" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC237" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD237" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AE237" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF237" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG237" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH237" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI237" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ237" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="B238" s="4">
+        <v>44879.0</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D238" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G238" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I238" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J238" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K238" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="L238" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M238" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N238" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O238" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P238" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Q238" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R238" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S238" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="T238" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U238" s="5">
+        <v>0.8645833333333334</v>
+      </c>
+      <c r="V238" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W238" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X238" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y238" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z238" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA238" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB238" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AC238" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD238" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE238" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF238" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AG238" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AH238" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI238" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AJ238" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="B239" s="4">
+        <v>44879.0</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D239" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G239" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I239" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J239" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K239" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="L239" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M239" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N239" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O239" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P239" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Q239" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R239" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S239" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="T239" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U239" s="5">
+        <v>0.8645833333333334</v>
+      </c>
+      <c r="V239" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="W239" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="X239" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y239" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z239" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA239" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB239" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC239" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD239" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AE239" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF239" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG239" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH239" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AI239" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ239" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="B240" s="4">
+        <v>44879.0</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D240" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G240" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I240" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J240" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K240" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="L240" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M240" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N240" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O240" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P240" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q240" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R240" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="S240" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="T240" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U240" s="5">
+        <v>0.8645833333333334</v>
+      </c>
+      <c r="V240" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W240" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X240" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y240" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z240" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA240" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB240" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC240" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD240" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE240" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF240" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AG240" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH240" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI240" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ240" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="B241" s="4">
+        <v>44879.0</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D241" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G241" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I241" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J241" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="K241" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="L241" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M241" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N241" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O241" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P241" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q241" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R241" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S241" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="T241" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U241" s="5">
+        <v>0.8645833333333334</v>
+      </c>
+      <c r="V241" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W241" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X241" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y241" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z241" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA241" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB241" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC241" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD241" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE241" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF241" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AG241" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH241" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI241" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ241" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="B242" s="4">
+        <v>44884.0</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D242" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G242" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I242" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J242" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K242" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="L242" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M242" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N242" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O242" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P242" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q242" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R242" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="S242" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="T242" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U242" s="5">
+        <v>0.9131944444444444</v>
+      </c>
+      <c r="V242" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W242" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X242" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y242" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z242" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA242" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB242" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC242" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD242" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE242" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF242" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG242" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH242" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI242" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AJ242" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK242" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="B243" s="4">
+        <v>44884.0</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D243" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G243" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I243" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J243" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="K243" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="L243" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M243" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N243" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O243" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P243" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q243" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R243" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S243" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="T243" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U243" s="5">
+        <v>0.9131944444444444</v>
+      </c>
+      <c r="V243" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="W243" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X243" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y243" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Z243" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA243" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB243" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC243" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD243" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE243" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF243" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG243" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH243" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AI243" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ243" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AK243" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="B244" s="4">
+        <v>44884.0</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D244" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G244" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I244" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J244" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="K244" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="L244" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M244" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N244" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O244" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P244" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Q244" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="R244" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S244" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="T244" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U244" s="5">
+        <v>0.9131944444444444</v>
+      </c>
+      <c r="V244" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W244" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X244" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y244" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z244" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA244" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB244" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC244" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD244" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE244" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF244" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG244" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH244" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI244" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ244" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AK244" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="B245" s="4">
+        <v>44884.0</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D245" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G245" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I245" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J245" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K245" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L245" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="M245" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N245" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O245" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P245" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q245" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R245" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S245" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="T245" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U245" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="V245" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W245" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="X245" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y245" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z245" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA245" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB245" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC245" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD245" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE245" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF245" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG245" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH245" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI245" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AJ245" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AK245" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="B246" s="4">
+        <v>44884.0</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D246" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G246" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I246" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J246" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="K246" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L246" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M246" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N246" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O246" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P246" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Q246" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="R246" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S246" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="T246" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U246" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="V246" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W246" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X246" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y246" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z246" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA246" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB246" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC246" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD246" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE246" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF246" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG246" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH246" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI246" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ246" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AK246" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="B247" s="4">
+        <v>44884.0</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D247" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G247" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I247" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J247" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="K247" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="L247" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M247" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N247" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O247" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P247" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Q247" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R247" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="S247" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="T247" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U247" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="V247" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W247" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X247" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y247" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z247" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA247" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB247" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC247" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD247" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE247" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF247" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG247" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH247" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI247" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ247" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AK247" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="B248" s="4">
+        <v>44885.0</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D248" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G248" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I248" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J248" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K248" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="L248" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M248" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N248" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O248" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P248" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Q248" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R248" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S248" s="1">
+        <v>85.0</v>
+      </c>
+      <c r="T248" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U248" s="5">
+        <v>0.059027777777777776</v>
+      </c>
+      <c r="V248" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W248" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X248" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y248" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z248" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA248" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB248" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC248" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD248" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE248" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF248" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="AG248" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH248" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI248" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ248" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK248" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="B249" s="4">
+        <v>44885.0</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D249" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G249" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I249" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J249" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="K249" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="L249" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M249" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N249" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O249" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P249" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q249" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R249" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="S249" s="1">
+        <v>85.0</v>
+      </c>
+      <c r="T249" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U249" s="5">
+        <v>0.059027777777777776</v>
+      </c>
+      <c r="V249" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W249" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X249" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y249" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z249" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA249" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB249" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC249" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD249" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE249" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF249" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG249" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AH249" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI249" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ249" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AK249" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="B250" s="4">
+        <v>44885.0</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D250" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G250" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I250" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J250" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K250" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="L250" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M250" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N250" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O250" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P250" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Q250" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R250" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S250" s="1">
+        <v>85.0</v>
+      </c>
+      <c r="T250" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U250" s="5">
+        <v>0.059027777777777776</v>
+      </c>
+      <c r="V250" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="W250" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X250" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y250" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z250" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA250" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AB250" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC250" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD250" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE250" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF250" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AG250" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH250" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI250" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AJ250" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AK250" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="B251" s="4">
+        <v>44885.0</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D251" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G251" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I251" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J251" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K251" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="L251" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="M251" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N251" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O251" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P251" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Q251" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R251" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S251" s="1">
+        <v>85.0</v>
+      </c>
+      <c r="T251" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U251" s="5">
+        <v>0.059027777777777776</v>
+      </c>
+      <c r="V251" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W251" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="X251" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y251" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z251" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA251" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB251" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC251" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD251" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AE251" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AF251" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG251" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH251" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI251" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ251" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AK251" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="B252" s="4">
+        <v>44885.0</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D252" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G252" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I252" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J252" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K252" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="L252" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M252" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N252" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O252" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P252" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Q252" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R252" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="S252" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="T252" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U252" s="5">
+        <v>0.90625</v>
+      </c>
+      <c r="V252" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W252" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="X252" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y252" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z252" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA252" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB252" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC252" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD252" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE252" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF252" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG252" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH252" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI252" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ252" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AK252" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="B253" s="4">
+        <v>44885.0</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D253" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G253" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I253" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J253" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K253" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="L253" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M253" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N253" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O253" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P253" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Q253" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R253" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S253" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="T253" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U253" s="5">
+        <v>0.90625</v>
+      </c>
+      <c r="V253" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="W253" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X253" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y253" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z253" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA253" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB253" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC253" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD253" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE253" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AF253" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AG253" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AH253" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AI253" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ253" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AK253" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="B254" s="4">
+        <v>44885.0</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D254" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G254" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I254" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J254" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="K254" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="L254" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M254" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N254" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O254" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P254" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Q254" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R254" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S254" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="T254" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="U254" s="5">
+        <v>0.90625</v>
+      </c>
+      <c r="V254" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W254" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X254" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y254" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Z254" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AA254" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AB254" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AC254" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AD254" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AE254" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AF254" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AG254" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AH254" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AI254" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AJ254" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AK254" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -24531,7 +27543,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
